--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Final_Parameters/Happiest Minds Technologies Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Final_Parameters/Happiest Minds Technologies Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>Balance Sheet of Happiest Minds Technologies(in Rs. Cr.)</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1557,13 +1560,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1624,10 +1627,13 @@
       <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>171.5</v>
@@ -1659,34 +1665,34 @@
       <c r="K2">
         <v>21.51</v>
       </c>
-      <c r="L2">
-        <v>21.51</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>21.51</v>
       </c>
       <c r="O2">
         <v>21.51</v>
       </c>
       <c r="P2">
+        <v>21.51</v>
+      </c>
+      <c r="Q2">
         <v>6.17</v>
-      </c>
-      <c r="Q2">
-        <v>1.61</v>
       </c>
       <c r="R2">
         <v>1.61</v>
       </c>
       <c r="S2">
+        <v>1.61</v>
+      </c>
+      <c r="T2">
         <v>6.97</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.61</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>192.84</v>
@@ -1718,37 +1724,37 @@
       <c r="K3">
         <v>53.27</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>53.27</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>11.12</v>
-      </c>
-      <c r="N3">
-        <v>42.15</v>
       </c>
       <c r="O3">
         <v>42.15</v>
       </c>
       <c r="P3">
+        <v>42.15</v>
+      </c>
+      <c r="Q3">
         <v>28.31</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.98</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.89</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.98</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.89</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>182.84</v>
@@ -1780,37 +1786,37 @@
       <c r="K4">
         <v>42.67</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>42.67</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.59</v>
-      </c>
-      <c r="N4">
-        <v>34.08</v>
       </c>
       <c r="O4">
         <v>34.08</v>
       </c>
       <c r="P4">
+        <v>34.08</v>
+      </c>
+      <c r="Q4">
         <v>28.24</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.51</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.42</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.51</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2.42</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>177.02</v>
@@ -1842,37 +1848,37 @@
       <c r="K5">
         <v>39.44</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>39.44</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-9.34</v>
-      </c>
-      <c r="N5">
-        <v>48.78</v>
       </c>
       <c r="O5">
         <v>48.78</v>
       </c>
       <c r="P5">
+        <v>48.78</v>
+      </c>
+      <c r="Q5">
         <v>20.44</v>
-      </c>
-      <c r="Q5">
-        <v>3.62</v>
       </c>
       <c r="R5">
         <v>3.62</v>
       </c>
       <c r="S5">
+        <v>3.62</v>
+      </c>
+      <c r="T5">
         <v>4.77</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>186.35</v>
@@ -1905,30 +1911,33 @@
         <v>18.05</v>
       </c>
       <c r="L6">
+        <v>-11.26</v>
+      </c>
+      <c r="M6">
         <v>6.79</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.9</v>
-      </c>
-      <c r="N6">
-        <v>4.89</v>
       </c>
       <c r="O6">
         <v>4.89</v>
       </c>
       <c r="P6">
+        <v>4.89</v>
+      </c>
+      <c r="Q6">
         <v>8.789999999999999</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.11</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.11</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>265.88</v>
@@ -1960,37 +1969,37 @@
       <c r="K7">
         <v>60.05</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60.05</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>15.27</v>
-      </c>
-      <c r="N7">
-        <v>44.78</v>
       </c>
       <c r="O7">
         <v>44.78</v>
       </c>
       <c r="P7">
+        <v>44.78</v>
+      </c>
+      <c r="Q7">
         <v>28.54</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.14</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3.09</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3.14</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3.09</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>250.43</v>
@@ -2022,37 +2031,37 @@
       <c r="K8">
         <v>59.78</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>59.78</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>15.3</v>
-      </c>
-      <c r="N8">
-        <v>44.48</v>
       </c>
       <c r="O8">
         <v>44.48</v>
       </c>
       <c r="P8">
+        <v>44.48</v>
+      </c>
+      <c r="Q8">
         <v>28.46</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3.12</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3.06</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3.12</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.06</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>230.41</v>
@@ -2085,36 +2094,39 @@
         <v>56.27</v>
       </c>
       <c r="L9">
+        <v>-6.09</v>
+      </c>
+      <c r="M9">
         <v>50.18</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>15.17</v>
-      </c>
-      <c r="N9">
-        <v>35.01</v>
       </c>
       <c r="O9">
         <v>35.01</v>
       </c>
       <c r="P9">
+        <v>35.01</v>
+      </c>
+      <c r="Q9">
         <v>28.42</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.46</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2.4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.46</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>208.26</v>
@@ -2146,37 +2158,37 @@
       <c r="K10">
         <v>50.64</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>50.64</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>13.72</v>
-      </c>
-      <c r="N10">
-        <v>36.92</v>
       </c>
       <c r="O10">
         <v>36.92</v>
       </c>
       <c r="P10">
+        <v>36.92</v>
+      </c>
+      <c r="Q10">
         <v>28.37</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.61</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.54</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.61</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2.54</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>286.82</v>
@@ -2209,36 +2221,39 @@
         <v>74.75</v>
       </c>
       <c r="L11">
+        <v>6.09</v>
+      </c>
+      <c r="M11">
         <v>80.84</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>18.63</v>
-      </c>
-      <c r="N11">
-        <v>62.21</v>
       </c>
       <c r="O11">
         <v>62.21</v>
       </c>
       <c r="P11">
+        <v>62.21</v>
+      </c>
+      <c r="Q11">
         <v>28.54</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4.38</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4.28</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4.38</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4.28</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>344.76</v>
@@ -2270,37 +2285,37 @@
       <c r="K12">
         <v>73.25</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>73.25</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>15.98</v>
-      </c>
-      <c r="N12">
-        <v>57.27</v>
       </c>
       <c r="O12">
         <v>57.27</v>
       </c>
       <c r="P12">
+        <v>57.27</v>
+      </c>
+      <c r="Q12">
         <v>29.37</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.96</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3.96</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>337.65</v>
@@ -2332,37 +2347,37 @@
       <c r="K13">
         <v>75.59</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>75.59</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>20.28</v>
-      </c>
-      <c r="N13">
-        <v>55.31</v>
       </c>
       <c r="O13">
         <v>55.31</v>
       </c>
       <c r="P13">
+        <v>55.31</v>
+      </c>
+      <c r="Q13">
         <v>28.61</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3.86</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.81</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>3.86</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>3.81</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>307.81</v>
@@ -2394,37 +2409,37 @@
       <c r="K14">
         <v>70.26000000000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>70.26000000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>17.72</v>
-      </c>
-      <c r="N14">
-        <v>52.54</v>
       </c>
       <c r="O14">
         <v>52.54</v>
       </c>
       <c r="P14">
+        <v>52.54</v>
+      </c>
+      <c r="Q14">
         <v>28.58</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3.69</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3.62</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3.69</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3.62</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>357.05</v>
@@ -2456,37 +2471,37 @@
       <c r="K15">
         <v>77.58</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>77.58</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>20.14</v>
-      </c>
-      <c r="N15">
-        <v>57.44</v>
       </c>
       <c r="O15">
         <v>57.44</v>
       </c>
       <c r="P15">
+        <v>57.44</v>
+      </c>
+      <c r="Q15">
         <v>28.72</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3.98</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.96</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3.98</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3.96</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>342.33</v>
@@ -2518,37 +2533,37 @@
       <c r="K16">
         <v>72.58</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>72.58</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>21.32</v>
-      </c>
-      <c r="N16">
-        <v>51.26</v>
       </c>
       <c r="O16">
         <v>51.26</v>
       </c>
       <c r="P16">
+        <v>51.26</v>
+      </c>
+      <c r="Q16">
         <v>28.66</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.56</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.54</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3.56</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3.54</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>370.58</v>
@@ -2581,36 +2596,39 @@
         <v>98.23</v>
       </c>
       <c r="L17">
+        <v>1.07</v>
+      </c>
+      <c r="M17">
         <v>99.3</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>19.47</v>
-      </c>
-      <c r="N17">
-        <v>79.83</v>
       </c>
       <c r="O17">
         <v>79.83</v>
       </c>
       <c r="P17">
+        <v>79.83</v>
+      </c>
+      <c r="Q17">
         <v>29.81</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5.32</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.3</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>5.32</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5.3</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>370.01</v>
@@ -2642,37 +2660,37 @@
       <c r="K18">
         <v>74.17</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>74.17</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>19.64</v>
-      </c>
-      <c r="N18">
-        <v>54.53</v>
       </c>
       <c r="O18">
         <v>54.53</v>
       </c>
       <c r="P18">
+        <v>54.53</v>
+      </c>
+      <c r="Q18">
         <v>29.8</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3.66</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3.64</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3.66</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3.64</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>374.65</v>
@@ -2704,23 +2722,20 @@
       <c r="K19">
         <v>52.24</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>52.24</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>13.98</v>
-      </c>
-      <c r="N19">
-        <v>38.26</v>
       </c>
       <c r="O19">
         <v>38.26</v>
       </c>
       <c r="P19">
+        <v>38.26</v>
+      </c>
+      <c r="Q19">
         <v>29.95</v>
-      </c>
-      <c r="Q19">
-        <v>2.54</v>
       </c>
       <c r="R19">
         <v>2.54</v>
@@ -2731,10 +2746,13 @@
       <c r="T19">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>372.4</v>
@@ -2766,23 +2784,20 @@
       <c r="K20">
         <v>59.82</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>59.82</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>15.98</v>
-      </c>
-      <c r="N20">
-        <v>43.84</v>
       </c>
       <c r="O20">
         <v>43.84</v>
       </c>
       <c r="P20">
+        <v>43.84</v>
+      </c>
+      <c r="Q20">
         <v>29.91</v>
-      </c>
-      <c r="Q20">
-        <v>2.91</v>
       </c>
       <c r="R20">
         <v>2.91</v>
@@ -2793,10 +2808,13 @@
       <c r="T20">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>375.24</v>
@@ -2829,22 +2847,22 @@
         <v>73.55</v>
       </c>
       <c r="L21">
+        <v>0.36</v>
+      </c>
+      <c r="M21">
         <v>73.91</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>19.98</v>
-      </c>
-      <c r="N21">
-        <v>53.93</v>
       </c>
       <c r="O21">
         <v>53.93</v>
       </c>
       <c r="P21">
+        <v>53.93</v>
+      </c>
+      <c r="Q21">
         <v>29.87</v>
-      </c>
-      <c r="Q21">
-        <v>3.59</v>
       </c>
       <c r="R21">
         <v>3.59</v>
@@ -2853,6 +2871,9 @@
         <v>3.59</v>
       </c>
       <c r="T21">
+        <v>3.59</v>
+      </c>
+      <c r="U21">
         <v>3.59</v>
       </c>
     </row>
@@ -2871,58 +2892,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:18">
